--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Fall.102320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Fall.102320.xlsx_with_dialog_acts.xlsx
@@ -517,12 +517,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1445,12 +1445,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1697,12 +1697,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2075,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2747,12 +2747,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3167,12 +3167,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4259,12 +4259,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4721,12 +4721,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4763,12 +4763,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5225,12 +5225,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5603,12 +5603,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5817,12 +5817,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5859,12 +5859,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6491,12 +6491,12 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6869,12 +6869,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7121,12 +7121,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7247,12 +7247,12 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7331,12 +7331,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7457,12 +7457,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9349,12 +9349,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9517,12 +9517,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9725,12 +9725,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9767,12 +9767,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10061,12 +10061,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10271,12 +10271,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11497,12 +11497,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -11879,12 +11879,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12093,12 +12093,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13569,12 +13569,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13611,12 +13611,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14283,12 +14283,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -14745,12 +14745,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14955,12 +14955,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15211,12 +15211,12 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15671,12 +15671,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15965,12 +15965,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16007,12 +16007,12 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16421,12 +16421,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16743,12 +16743,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17023,12 +17023,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17423,12 +17423,12 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17863,12 +17863,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17983,12 +17983,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19419,12 +19419,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19499,12 +19499,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19739,12 +19739,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
